--- a/BD/Modeling/modelagem-SPMG-físico.xlsx
+++ b/BD/Modeling/modelagem-SPMG-físico.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20375"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\SENAI\ATVIDADES\DESENVOLVIMENTO_BANCO-DE-DADOS\Projetos\ProjetoSPMG\modelagem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\35834520898\Documents\SPMedical_Group\BD\Modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BD68FC-FA99-4269-A667-AE637CC77B08}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16404" windowHeight="8424" tabRatio="598" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16410" windowHeight="8430" tabRatio="598" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TODAS" sheetId="1" state="hidden" r:id="rId1"/>
@@ -22,18 +23,10 @@
     <sheet name="situacoes" sheetId="8" r:id="rId8"/>
     <sheet name="consultas" sheetId="9" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">usuarios!$A$2:$E$13</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -532,7 +525,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
@@ -885,6 +878,9 @@
     <xf numFmtId="166" fontId="0" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -927,6 +923,15 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -937,18 +942,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1271,48 +1264,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D37" sqref="D37:L45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" customWidth="1"/>
-    <col min="7" max="7" width="42.88671875" customWidth="1"/>
-    <col min="8" max="8" width="66.88671875" customWidth="1"/>
-    <col min="9" max="9" width="61.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="42.85546875" customWidth="1"/>
+    <col min="8" max="8" width="66.85546875" customWidth="1"/>
+    <col min="9" max="9" width="61.7109375" customWidth="1"/>
     <col min="10" max="10" width="68" customWidth="1"/>
-    <col min="11" max="11" width="66.6640625" customWidth="1"/>
-    <col min="12" max="12" width="27.21875" customWidth="1"/>
+    <col min="11" max="11" width="66.7109375" customWidth="1"/>
+    <col min="12" max="12" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="46"/>
+      <c r="B1" s="47"/>
       <c r="C1" s="19"/>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
       <c r="K1" s="19"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1344,7 +1337,7 @@
       <c r="K2" s="19"/>
       <c r="L2" s="19"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1376,7 +1369,7 @@
       <c r="K3" s="19"/>
       <c r="L3" s="19"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -1394,7 +1387,7 @@
       <c r="K4" s="19"/>
       <c r="L4" s="19"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1402,19 +1395,19 @@
         <v>109</v>
       </c>
       <c r="C5" s="19"/>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
       <c r="I5" s="19"/>
       <c r="J5" s="19"/>
       <c r="K5" s="19"/>
       <c r="L5" s="19"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -1436,11 +1429,11 @@
       <c r="K6" s="19"/>
       <c r="L6" s="19"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="49" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="49"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="19"/>
       <c r="D7" s="16">
         <v>1</v>
@@ -1460,7 +1453,7 @@
       <c r="K7" s="19"/>
       <c r="L7" s="19"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
@@ -1486,7 +1479,7 @@
       <c r="K8" s="19"/>
       <c r="L8" s="19"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>1</v>
       </c>
@@ -1512,7 +1505,7 @@
       <c r="K9" s="19"/>
       <c r="L9" s="19"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>2</v>
       </c>
@@ -1538,7 +1531,7 @@
       <c r="K10" s="19"/>
       <c r="L10" s="19"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>3</v>
       </c>
@@ -1564,7 +1557,7 @@
       <c r="K11" s="19"/>
       <c r="L11" s="19"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>4</v>
       </c>
@@ -1590,7 +1583,7 @@
       <c r="K12" s="19"/>
       <c r="L12" s="19"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>5</v>
       </c>
@@ -1616,7 +1609,7 @@
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>6</v>
       </c>
@@ -1642,7 +1635,7 @@
       <c r="K14" s="19"/>
       <c r="L14" s="19"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>7</v>
       </c>
@@ -1668,7 +1661,7 @@
       <c r="K15" s="19"/>
       <c r="L15" s="19"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>8</v>
       </c>
@@ -1694,7 +1687,7 @@
       <c r="K16" s="19"/>
       <c r="L16" s="19"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>9</v>
       </c>
@@ -1720,7 +1713,7 @@
       <c r="K17" s="19"/>
       <c r="L17" s="19"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>10</v>
       </c>
@@ -1738,7 +1731,7 @@
       <c r="K18" s="19"/>
       <c r="L18" s="19"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>11</v>
       </c>
@@ -1756,7 +1749,7 @@
       <c r="K19" s="19"/>
       <c r="L19" s="19"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>12</v>
       </c>
@@ -1764,19 +1757,19 @@
         <v>36</v>
       </c>
       <c r="C20" s="19"/>
-      <c r="D20" s="47" t="s">
+      <c r="D20" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
       <c r="J20" s="19"/>
       <c r="K20" s="19"/>
       <c r="L20" s="19"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>13</v>
       </c>
@@ -1806,7 +1799,7 @@
       <c r="K21" s="19"/>
       <c r="L21" s="19"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>14</v>
       </c>
@@ -1836,7 +1829,7 @@
       <c r="K22" s="19"/>
       <c r="L22" s="19"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>15</v>
       </c>
@@ -1866,7 +1859,7 @@
       <c r="K23" s="19"/>
       <c r="L23" s="19"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>16</v>
       </c>
@@ -1896,7 +1889,7 @@
       <c r="K24" s="19"/>
       <c r="L24" s="19"/>
     </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>17</v>
       </c>
@@ -1914,7 +1907,7 @@
       <c r="K25" s="19"/>
       <c r="L25" s="19"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="19"/>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
@@ -1928,23 +1921,23 @@
       <c r="K26" s="19"/>
       <c r="L26" s="19"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="50" t="s">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
       <c r="I27" s="19"/>
       <c r="J27" s="19"/>
       <c r="K27" s="19"/>
       <c r="L27" s="19"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>118</v>
       </c>
@@ -1974,7 +1967,7 @@
       <c r="K28" s="19"/>
       <c r="L28" s="19"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>1</v>
       </c>
@@ -2004,7 +1997,7 @@
       <c r="K29" s="19"/>
       <c r="L29" s="19"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>2</v>
       </c>
@@ -2034,7 +2027,7 @@
       <c r="K30" s="19"/>
       <c r="L30" s="19"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>3</v>
       </c>
@@ -2064,7 +2057,7 @@
       <c r="K31" s="19"/>
       <c r="L31" s="19"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>4</v>
       </c>
@@ -2094,7 +2087,7 @@
       <c r="K32" s="19"/>
       <c r="L32" s="19"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>5</v>
       </c>
@@ -2124,7 +2117,7 @@
       <c r="K33" s="19"/>
       <c r="L33" s="19"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>6</v>
       </c>
@@ -2154,7 +2147,7 @@
       <c r="K34" s="19"/>
       <c r="L34" s="19"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>7</v>
       </c>
@@ -2182,7 +2175,7 @@
       <c r="K35" s="19"/>
       <c r="L35" s="19"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="19"/>
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
@@ -2196,24 +2189,24 @@
       <c r="K36" s="19"/>
       <c r="L36" s="19"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="43" t="s">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="B37" s="44"/>
-      <c r="D37" s="51" t="s">
+      <c r="B37" s="45"/>
+      <c r="D37" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51"/>
-      <c r="I37" s="51"/>
-      <c r="J37" s="51"/>
-      <c r="K37" s="51"/>
-      <c r="L37" s="51"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E37" s="52"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="52"/>
+      <c r="J37" s="52"/>
+      <c r="K37" s="52"/>
+      <c r="L37" s="52"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>84</v>
       </c>
@@ -2246,7 +2239,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
         <v>1</v>
       </c>
@@ -2279,7 +2272,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
         <v>2</v>
       </c>
@@ -2312,7 +2305,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
         <v>3</v>
       </c>
@@ -2343,7 +2336,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="19"/>
       <c r="B42" s="19"/>
       <c r="D42" s="13">
@@ -2372,7 +2365,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="19"/>
       <c r="B43" s="19"/>
       <c r="D43" s="13">
@@ -2401,7 +2394,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="19"/>
       <c r="B44" s="19"/>
       <c r="D44" s="13">
@@ -2428,7 +2421,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="19"/>
       <c r="B45" s="19"/>
       <c r="D45" s="13">
@@ -2453,13 +2446,13 @@
       <c r="K45" s="13"/>
       <c r="L45" s="13"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="19"/>
       <c r="B46" s="19"/>
       <c r="C46" s="19"/>
       <c r="L46" s="19"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="19"/>
       <c r="B47" s="19"/>
       <c r="C47" s="19"/>
@@ -2473,7 +2466,7 @@
       <c r="K47" s="19"/>
       <c r="L47" s="19"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="19"/>
       <c r="B48" s="19"/>
       <c r="C48" s="19"/>
@@ -2487,7 +2480,7 @@
       <c r="K48" s="19"/>
       <c r="L48" s="19"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="19"/>
       <c r="B49" s="19"/>
       <c r="C49" s="19"/>
@@ -2501,7 +2494,7 @@
       <c r="K49" s="19"/>
       <c r="L49" s="19"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="19"/>
       <c r="B50" s="19"/>
       <c r="C50" s="19"/>
@@ -2515,7 +2508,7 @@
       <c r="K50" s="19"/>
       <c r="L50" s="19"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="19"/>
       <c r="B51" s="19"/>
       <c r="C51" s="19"/>
@@ -2529,7 +2522,7 @@
       <c r="K51" s="19"/>
       <c r="L51" s="19"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="19"/>
       <c r="B52" s="19"/>
       <c r="C52" s="19"/>
@@ -2543,7 +2536,7 @@
       <c r="K52" s="19"/>
       <c r="L52" s="19"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="19"/>
       <c r="B53" s="19"/>
       <c r="C53" s="19"/>
@@ -2557,7 +2550,7 @@
       <c r="K53" s="19"/>
       <c r="L53" s="19"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="19"/>
       <c r="B54" s="19"/>
       <c r="C54" s="19"/>
@@ -2583,17 +2576,17 @@
     <mergeCell ref="D37:L37"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G11" r:id="rId1"/>
-    <hyperlink ref="G12" r:id="rId2"/>
-    <hyperlink ref="G13" r:id="rId3"/>
-    <hyperlink ref="G14" r:id="rId4"/>
-    <hyperlink ref="G15" r:id="rId5"/>
-    <hyperlink ref="G16" r:id="rId6"/>
-    <hyperlink ref="G10" r:id="rId7"/>
-    <hyperlink ref="G7" r:id="rId8"/>
-    <hyperlink ref="G8" r:id="rId9"/>
-    <hyperlink ref="G9" r:id="rId10"/>
-    <hyperlink ref="G17" r:id="rId11"/>
+    <hyperlink ref="G11" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G12" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G13" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G14" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G15" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G16" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G7" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G8" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G9" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G17" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
@@ -2601,26 +2594,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="53"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" s="54"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
@@ -2628,7 +2621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="32">
         <v>1</v>
       </c>
@@ -2636,7 +2629,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="32">
         <v>2</v>
       </c>
@@ -2644,7 +2637,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="32">
         <v>3</v>
       </c>
@@ -2661,29 +2654,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="36.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.77734375" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>15</v>
       </c>
@@ -2698,7 +2692,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28">
         <v>1</v>
       </c>
@@ -2713,7 +2707,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28">
         <v>2</v>
       </c>
@@ -2728,7 +2722,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28">
         <v>3</v>
       </c>
@@ -2743,7 +2737,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28">
         <v>4</v>
       </c>
@@ -2758,7 +2752,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="28">
         <v>5</v>
       </c>
@@ -2773,7 +2767,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
         <v>6</v>
       </c>
@@ -2788,7 +2782,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>7</v>
       </c>
@@ -2803,7 +2797,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="28">
         <v>8</v>
       </c>
@@ -2818,7 +2812,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>9</v>
       </c>
@@ -2833,7 +2827,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>10</v>
       </c>
@@ -2848,7 +2842,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>11</v>
       </c>
@@ -2864,47 +2858,54 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:E13" xr:uid="{D4213585-0362-423F-8F4A-0C92F1527CF1}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="3"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D7" r:id="rId1"/>
-    <hyperlink ref="D8" r:id="rId2"/>
-    <hyperlink ref="D9" r:id="rId3"/>
-    <hyperlink ref="D10" r:id="rId4"/>
-    <hyperlink ref="D11" r:id="rId5"/>
-    <hyperlink ref="D12" r:id="rId6"/>
-    <hyperlink ref="D6" r:id="rId7"/>
-    <hyperlink ref="D3" r:id="rId8"/>
-    <hyperlink ref="D4" r:id="rId9"/>
-    <hyperlink ref="D5" r:id="rId10"/>
-    <hyperlink ref="D13" r:id="rId11"/>
+    <hyperlink ref="D7" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="D8" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="D9" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="D10" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="D11" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="D12" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="D6" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="D3" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="D4" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="D5" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="D13" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" customWidth="1"/>
-    <col min="2" max="2" width="26.44140625" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="55"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" s="56"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>11</v>
       </c>
@@ -2912,7 +2913,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="26">
         <v>1</v>
       </c>
@@ -2920,7 +2921,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="26">
         <v>2</v>
       </c>
@@ -2928,7 +2929,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
         <v>3</v>
       </c>
@@ -2936,7 +2937,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="26">
         <v>4</v>
       </c>
@@ -2944,7 +2945,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="26">
         <v>5</v>
       </c>
@@ -2952,7 +2953,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="26">
         <v>6</v>
       </c>
@@ -2960,7 +2961,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="26">
         <v>7</v>
       </c>
@@ -2968,7 +2969,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="26">
         <v>8</v>
       </c>
@@ -2976,7 +2977,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="26">
         <v>9</v>
       </c>
@@ -2984,7 +2985,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="26">
         <v>10</v>
       </c>
@@ -2992,7 +2993,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="26">
         <v>11</v>
       </c>
@@ -3000,7 +3001,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="26">
         <v>12</v>
       </c>
@@ -3008,7 +3009,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="26">
         <v>13</v>
       </c>
@@ -3016,7 +3017,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="26">
         <v>14</v>
       </c>
@@ -3024,7 +3025,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="26">
         <v>15</v>
       </c>
@@ -3032,7 +3033,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="26">
         <v>16</v>
       </c>
@@ -3040,7 +3041,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="26">
         <v>17</v>
       </c>
@@ -3057,35 +3058,35 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.5546875" customWidth="1"/>
-    <col min="3" max="3" width="29.21875" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" customWidth="1"/>
-    <col min="7" max="7" width="24.88671875" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>2</v>
       </c>
@@ -3108,7 +3109,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="23">
         <v>1</v>
       </c>
@@ -3140,51 +3141,51 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
     <col min="8" max="8" width="79" customWidth="1"/>
-    <col min="9" max="9" width="9.77734375" customWidth="1"/>
-    <col min="10" max="10" width="30.77734375" customWidth="1"/>
-    <col min="12" max="12" width="16.33203125" customWidth="1"/>
-    <col min="13" max="13" width="18.109375" customWidth="1"/>
-    <col min="14" max="14" width="12.44140625" customWidth="1"/>
-    <col min="15" max="15" width="12.77734375" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" customWidth="1"/>
+    <col min="10" max="10" width="30.7109375" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="J1" s="62" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="J1" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="64"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="60"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>118</v>
       </c>
@@ -3228,7 +3229,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="23">
         <v>1</v>
       </c>
@@ -3253,26 +3254,26 @@
       <c r="H3" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="J3" s="61" t="s">
+      <c r="J3" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="K3" s="61">
+      <c r="K3" s="43">
         <v>240</v>
       </c>
-      <c r="L3" s="61" t="s">
+      <c r="L3" s="43" t="s">
         <v>161</v>
       </c>
-      <c r="M3" s="61" t="s">
+      <c r="M3" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="N3" s="61" t="s">
+      <c r="N3" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="O3" s="61" t="s">
+      <c r="O3" s="43" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="23">
         <v>2</v>
       </c>
@@ -3297,26 +3298,26 @@
       <c r="H4" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="J4" s="61" t="s">
+      <c r="J4" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="K4" s="61">
+      <c r="K4" s="43">
         <v>1578</v>
       </c>
-      <c r="L4" s="61" t="s">
+      <c r="L4" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="M4" s="61" t="s">
+      <c r="M4" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="N4" s="61" t="s">
+      <c r="N4" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="O4" s="61" t="s">
+      <c r="O4" s="43" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="23">
         <v>3</v>
       </c>
@@ -3341,26 +3342,26 @@
       <c r="H5" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="J5" s="61" t="s">
+      <c r="J5" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="K5" s="61">
+      <c r="K5" s="43">
         <v>2927</v>
       </c>
-      <c r="L5" s="61" t="s">
+      <c r="L5" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="M5" s="61" t="s">
+      <c r="M5" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="N5" s="61" t="s">
+      <c r="N5" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="O5" s="61" t="s">
+      <c r="O5" s="43" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="23">
         <v>4</v>
       </c>
@@ -3385,26 +3386,26 @@
       <c r="H6" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="J6" s="61" t="s">
+      <c r="J6" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="K6" s="61">
+      <c r="K6" s="43">
         <v>120</v>
       </c>
-      <c r="L6" s="61" t="s">
+      <c r="L6" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="M6" s="61" t="s">
+      <c r="M6" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="N6" s="61" t="s">
+      <c r="N6" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="O6" s="61" t="s">
+      <c r="O6" s="43" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="23">
         <v>5</v>
       </c>
@@ -3429,26 +3430,26 @@
       <c r="H7" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="J7" s="61" t="s">
+      <c r="J7" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="K7" s="61">
+      <c r="K7" s="43">
         <v>66</v>
       </c>
-      <c r="L7" s="61" t="s">
+      <c r="L7" s="43" t="s">
         <v>159</v>
       </c>
-      <c r="M7" s="61" t="s">
+      <c r="M7" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="N7" s="61" t="s">
+      <c r="N7" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="O7" s="61" t="s">
+      <c r="O7" s="43" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="23">
         <v>6</v>
       </c>
@@ -3473,26 +3474,26 @@
       <c r="H8" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="J8" s="61" t="s">
+      <c r="J8" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="K8" s="61">
+      <c r="K8" s="43">
         <v>945</v>
       </c>
-      <c r="L8" s="61" t="s">
+      <c r="L8" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="M8" s="61" t="s">
+      <c r="M8" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="N8" s="61" t="s">
+      <c r="N8" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="O8" s="61" t="s">
+      <c r="O8" s="43" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="23">
         <v>7</v>
       </c>
@@ -3515,22 +3516,22 @@
       <c r="H9" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="J9" s="61" t="s">
+      <c r="J9" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="K9" s="61">
+      <c r="K9" s="43">
         <v>232</v>
       </c>
-      <c r="L9" s="61" t="s">
+      <c r="L9" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="M9" s="61" t="s">
+      <c r="M9" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="N9" s="61" t="s">
+      <c r="N9" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="O9" s="61" t="s">
+      <c r="O9" s="43" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3545,32 +3546,32 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E3" sqref="E3:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.21875" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="27.109375" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>47</v>
       </c>
@@ -3590,7 +3591,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="36">
         <v>1</v>
       </c>
@@ -3610,7 +3611,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="36">
         <v>2</v>
       </c>
@@ -3630,7 +3631,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="36">
         <v>3</v>
       </c>
@@ -3659,26 +3660,26 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="59"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" s="63"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
         <v>84</v>
       </c>
@@ -3686,7 +3687,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="38">
         <v>1</v>
       </c>
@@ -3694,7 +3695,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="38">
         <v>2</v>
       </c>
@@ -3702,7 +3703,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="38">
         <v>3</v>
       </c>
@@ -3719,36 +3720,36 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="13.5546875" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" customWidth="1"/>
-    <col min="7" max="7" width="46.44140625" customWidth="1"/>
-    <col min="8" max="8" width="17.109375" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="46.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>85</v>
       </c>
@@ -3774,7 +3775,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="40">
         <v>1</v>
       </c>
@@ -3800,7 +3801,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="40">
         <v>2</v>
       </c>
@@ -3826,7 +3827,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="40">
         <v>3</v>
       </c>
@@ -3850,7 +3851,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="40">
         <v>4</v>
       </c>
@@ -3876,7 +3877,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="40">
         <v>5</v>
       </c>
@@ -3902,7 +3903,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="40">
         <v>6</v>
       </c>
@@ -3926,7 +3927,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="40">
         <v>7</v>
       </c>
